--- a/ПКМ/resdata PKM Temp=8, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=8, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>954.4969526878768</v>
       </c>
       <c r="E3" t="n">
-        <v>461.7290758348288</v>
+        <v>461.7618501269453</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.823487003084393</v>
+        <v>6.823528079116521</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>542.742077336724</v>
+        <v>542.7418065770811</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>962.8943143356108</v>
+        <v>962.893776809291</v>
       </c>
       <c r="E5" t="n">
-        <v>468.5525628379132</v>
+        <v>468.5853782060618</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7792566331108484</v>
+        <v>0.7792566998746572</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220042849179569</v>
+        <v>0.1220043934247526</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03100111634157273</v>
+        <v>0.03100105868020744</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06120602210474099</v>
+        <v>0.06120590653952981</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006531943524881141</v>
+        <v>0.006531941480852893</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467.2826022972024</v>
+        <v>467.2825745313494</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>876.5792198088412</v>
+        <v>876.5789696204612</v>
       </c>
       <c r="E6" t="n">
-        <v>468.5525628379132</v>
+        <v>468.5853782060618</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7792566331108484</v>
+        <v>0.7792566998746572</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1220042849179569</v>
+        <v>0.1220043934247526</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03100111634157273</v>
+        <v>0.03100105868020744</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06120602210474099</v>
+        <v>0.06120590653952981</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006531943524881141</v>
+        <v>0.006531941480852893</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>298.4617916154493</v>
+        <v>298.4743329097926</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>688.9207127830736</v>
+        <v>688.9341741530491</v>
       </c>
       <c r="E7" t="n">
-        <v>468.5525628379132</v>
+        <v>468.5853782060618</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7792566331108484</v>
+        <v>0.7792566998746572</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1220042849179569</v>
+        <v>0.1220043934247526</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03100111634157273</v>
+        <v>0.03100105868020744</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06120602210474099</v>
+        <v>0.06120590653952981</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006531943524881141</v>
+        <v>0.006531941480852893</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.4325323475184</v>
+        <v>228.4560477027987</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>613.1917716652047</v>
+        <v>613.2168131310916</v>
       </c>
       <c r="E8" t="n">
-        <v>468.5525628379132</v>
+        <v>468.5853782060618</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7792566331108484</v>
+        <v>0.7792566998746572</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220042849179569</v>
+        <v>0.1220043934247526</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03100111634157273</v>
+        <v>0.03100105868020744</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06120602210474099</v>
+        <v>0.06120590653952981</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006531943524881141</v>
+        <v>0.006531941480852893</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227.5113652694019</v>
+        <v>227.5348618675106</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>612.2030771816432</v>
+        <v>612.2280938960579</v>
       </c>
       <c r="E9" t="n">
-        <v>468.5525628379132</v>
+        <v>468.5853782060618</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7792566331108484</v>
+        <v>0.7792566998746572</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1220042849179569</v>
+        <v>0.1220043934247526</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03100111634157273</v>
+        <v>0.03100105868020744</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06120602210474099</v>
+        <v>0.06120590653952981</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006531943524881141</v>
+        <v>0.006531941480852893</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.0608772210892</v>
+        <v>167.071563984175</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>547.7005476458663</v>
+        <v>547.7116929899499</v>
       </c>
       <c r="E10" t="n">
-        <v>468.5525628379132</v>
+        <v>468.5853782060618</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7792566331108484</v>
+        <v>0.7792566998746572</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1220042849179569</v>
+        <v>0.1220043934247526</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03100111634157273</v>
+        <v>0.03100105868020744</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06120602210474099</v>
+        <v>0.06120590653952981</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006531943524881141</v>
+        <v>0.006531941480852893</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.08922107984263</v>
+        <v>98.09134687383703</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.8906078183174</v>
+        <v>474.892649984936</v>
       </c>
       <c r="E11" t="n">
-        <v>468.5525628379132</v>
+        <v>468.5853782060618</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7792566331108484</v>
+        <v>0.7792566998746572</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1220042849179569</v>
+        <v>0.1220043934247526</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03100111634157273</v>
+        <v>0.03100105868020744</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06120602210474099</v>
+        <v>0.06120590653952981</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006531943524881141</v>
+        <v>0.006531941480852893</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.468045036434618</v>
+        <v>6.468083972776931</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3554419666497801</v>
+        <v>0.3554441063395948</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.987006824548189</v>
+        <v>5.986986225993371</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.987006824548189</v>
+        <v>5.986986225993371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.987006824548189</v>
+        <v>5.986986225993371</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.987006824548189</v>
+        <v>5.986986225993371</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381367301992743</v>
+        <v>2.381359108795984</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944166</v>
+        <v>0.05094889585944173</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
@@ -1158,7 +1158,7 @@
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6576984094477714</v>
+        <v>0.6576619734839194</v>
       </c>
       <c r="C2" t="n">
-        <v>0.686506326241796</v>
+        <v>0.6864774924474508</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9580369245077021</v>
+        <v>0.9580240877806534</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.40160349850892</v>
+        <v>54.40009954766017</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.85925960620124</v>
+        <v>34.85835862943784</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8483748374422502</v>
+        <v>0.8483750312082845</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.16837538059631</v>
+        <v>14.16802480139715</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.6973596913157099</v>
+        <v>0.6973204761503362</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.953873739792339</v>
+        <v>4.953704115510942</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6374800603302063</v>
+        <v>0.6376992717122769</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4200947719190272</v>
+        <v>0.4200120013142278</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.2258169552278704</v>
+        <v>0.2257951891852918</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08244642469643375</v>
+        <v>0.08244126551125115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09220286600911533</v>
+        <v>0.09219712389428426</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8941850537301407</v>
+        <v>0.8941847861304281</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42369.5321167063</v>
+        <v>42370.6815918872</v>
       </c>
       <c r="C2" t="n">
-        <v>42797.50718859222</v>
+        <v>42798.66827463354</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90986.77693079416</v>
+        <v>90986.53561666164</v>
       </c>
       <c r="C3" t="n">
-        <v>91905.83528363047</v>
+        <v>91905.59153198145</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40089.98982864685</v>
+        <v>40089.0916644203</v>
       </c>
       <c r="C4" t="n">
-        <v>40494.9392208554</v>
+        <v>40494.03198426293</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>503.9453428222449</v>
+        <v>503.9449133220605</v>
       </c>
       <c r="C5" t="n">
-        <v>509.0356998204494</v>
+        <v>509.0352659818793</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32708.1308907524</v>
+        <v>32708.3998960179</v>
       </c>
       <c r="C6" t="n">
-        <v>33038.51605126505</v>
+        <v>33038.78777375545</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38313.56495938614</v>
+        <v>38315.18550421097</v>
       </c>
       <c r="C7" t="n">
-        <v>38700.5706660466</v>
+        <v>38702.20758001108</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.47966879498992</v>
+        <v>78.47438579105841</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69.15750992960635</v>
+        <v>69.16346691436277</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.032217721181148</v>
+        <v>6.031543740356248</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>515.3740963419584</v>
+        <v>515.3685816201406</v>
       </c>
       <c r="C3" t="n">
-        <v>7.156433198078634</v>
+        <v>7.157737587918879</v>
       </c>
       <c r="D3" t="n">
-        <v>3446.833830341174</v>
+        <v>3446.804951456505</v>
       </c>
       <c r="E3" t="n">
-        <v>58.79424657099398</v>
+        <v>58.79296986926688</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.5772289771735</v>
+        <v>290.5898814326357</v>
       </c>
       <c r="C4" t="n">
-        <v>7.504554456318456</v>
+        <v>7.505934989334234</v>
       </c>
       <c r="D4" t="n">
-        <v>2765.826210234739</v>
+        <v>2765.8069325759</v>
       </c>
       <c r="E4" t="n">
-        <v>58.79424657099398</v>
+        <v>58.79296986926688</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.1390365819788</v>
+        <v>289.1340737218898</v>
       </c>
       <c r="C5" t="n">
-        <v>7.504554456318456</v>
+        <v>7.505934989334234</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.260071358925</v>
+        <v>1285.231802489132</v>
       </c>
       <c r="E5" t="n">
-        <v>58.79424657099398</v>
+        <v>58.79296986926688</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.9124894526565</v>
+        <v>161.9235958104362</v>
       </c>
       <c r="C6" t="n">
-        <v>7.504554456318456</v>
+        <v>7.505934989334234</v>
       </c>
       <c r="D6" t="n">
-        <v>687.7747501799259</v>
+        <v>687.8235056241346</v>
       </c>
       <c r="E6" t="n">
-        <v>58.79424657099398</v>
+        <v>58.79296986926688</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.1949827030156</v>
+        <v>156.2030171692364</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5606675391371341</v>
+        <v>0.5607844124344544</v>
       </c>
       <c r="D7" t="n">
-        <v>658.9649904389009</v>
+        <v>658.9998022387576</v>
       </c>
       <c r="E7" t="n">
-        <v>58.79424657099398</v>
+        <v>58.79296986926688</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.1164488204213</v>
+        <v>170.1235751013017</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5541441118202266</v>
+        <v>0.5542668878678572</v>
       </c>
       <c r="D8" t="n">
-        <v>2786.532483270082</v>
+        <v>2786.540436729959</v>
       </c>
       <c r="E8" t="n">
-        <v>13.74968403906316</v>
+        <v>13.75268484112946</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>156.1949825841236</v>
+        <v>156.2030170503291</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5606675391371341</v>
+        <v>0.5607844124344544</v>
       </c>
       <c r="D9" t="n">
-        <v>2753.179060072029</v>
+        <v>2753.188217586697</v>
       </c>
       <c r="E9" t="n">
-        <v>13.74968403906316</v>
+        <v>13.75268484112946</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.6010621273126</v>
+        <v>152.6079500550619</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5606675391371341</v>
+        <v>0.5607844124344544</v>
       </c>
       <c r="D10" t="n">
-        <v>643.4429854044231</v>
+        <v>643.4727703060803</v>
       </c>
       <c r="E10" t="n">
-        <v>72.54393061005715</v>
+        <v>72.54565471039635</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>152.6010621273126</v>
+        <v>152.6079500550619</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5606675391371341</v>
+        <v>0.5607844124344544</v>
       </c>
       <c r="D11" t="n">
-        <v>643.4429854044231</v>
+        <v>643.4727703060803</v>
       </c>
       <c r="E11" t="n">
-        <v>86.20059715051229</v>
+        <v>86.21087956544478</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5606675391371341</v>
+        <v>0.5607844124344544</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6344235197825</v>
+        <v>251.6345216579438</v>
       </c>
       <c r="E12" t="n">
-        <v>86.20282894039808</v>
+        <v>86.20662094216455</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.32536935242206</v>
+        <v>42.32171416471539</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>177.8591536032425</v>
+        <v>177.8438813119733</v>
       </c>
       <c r="E13" t="n">
-        <v>72.54080424478906</v>
+        <v>72.55269674506721</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.90706439247339</v>
+        <v>41.90313634422</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>176.1113835702549</v>
+        <v>176.0949714438496</v>
       </c>
       <c r="E14" t="n">
-        <v>66.49398100299842</v>
+        <v>66.50567133353255</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>67.87477591736445</v>
+        <v>67.86003488096225</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02844235270456693</v>
+        <v>0.02842396510193792</v>
       </c>
       <c r="D15" t="n">
-        <v>284.1590684516092</v>
+        <v>284.0973029931864</v>
       </c>
       <c r="E15" t="n">
-        <v>62.07332947865025</v>
+        <v>62.06082994097525</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.07691119444337</v>
+        <v>43.07564275185911</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02842913850072044</v>
+        <v>0.02842312620141984</v>
       </c>
       <c r="D16" t="n">
-        <v>180.4124638384691</v>
+        <v>180.4071564940157</v>
       </c>
       <c r="E16" t="n">
-        <v>62.05942308309479</v>
+        <v>62.05701794040353</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>661.4020866984284</v>
+        <v>661.3997044104404</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.31742517910465</v>
+        <v>83.31712508011013</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.16706151646829</v>
+        <v>55.16379669675916</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>230.9844865694528</v>
+        <v>230.9708167693306</v>
       </c>
       <c r="E19" t="n">
-        <v>83.31742517910465</v>
+        <v>83.31712508011013</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.08982311421937</v>
+        <v>98.09583660908089</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09469655881206053</v>
+        <v>0.09470942564333641</v>
       </c>
       <c r="D20" t="n">
-        <v>2639.41294514933</v>
+        <v>2639.403001101316</v>
       </c>
       <c r="E20" t="n">
-        <v>30.40235582563439</v>
+        <v>30.41968838555755</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.67547149850866</v>
+        <v>96.67920138184844</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08996173087145749</v>
+        <v>0.08997395436116959</v>
       </c>
       <c r="D21" t="n">
-        <v>405.148595533462</v>
+        <v>405.1643150077486</v>
       </c>
       <c r="E21" t="n">
-        <v>30.40235582563439</v>
+        <v>30.41968838555755</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.71665743653165</v>
+        <v>65.70300493268712</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>275.155644686758</v>
+        <v>275.098481653161</v>
       </c>
       <c r="E22" t="n">
-        <v>661.4020866984284</v>
+        <v>661.3997044104404</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>376.83</v>
       </c>
       <c r="E23" t="n">
-        <v>661.4020866984284</v>
+        <v>661.3997044104404</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.203930854268</v>
+        <v>39.2035195819462</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>661.4020866984284</v>
+        <v>661.3997044104404</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.04864649486018</v>
+        <v>69.03378890116471</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02993931863638624</v>
+        <v>0.02991996326519781</v>
       </c>
       <c r="D25" t="n">
-        <v>2510.504430758226</v>
+        <v>2510.462336939976</v>
       </c>
       <c r="E25" t="n">
-        <v>31.65854682524011</v>
+        <v>31.6402837983838</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>512.7029620976457</v>
+        <v>512.6972350821964</v>
       </c>
       <c r="C26" t="n">
-        <v>6.579238570216986</v>
+        <v>6.580598689609404</v>
       </c>
       <c r="D26" t="n">
-        <v>3446.833830341174</v>
+        <v>3446.804951456505</v>
       </c>
       <c r="E26" t="n">
-        <v>52.74449841954526</v>
+        <v>52.7559233881783</v>
       </c>
       <c r="F26" t="n">
-        <v>6.872548566798854</v>
+        <v>6.872421037282351</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.2287589921276</v>
+        <v>193.2227318404755</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4210554682915552</v>
+        <v>0.4211423960427078</v>
       </c>
       <c r="D27" t="n">
-        <v>2845.562086586045</v>
+        <v>2845.544641563568</v>
       </c>
       <c r="E27" t="n">
-        <v>52.74449841954526</v>
+        <v>52.7559233881783</v>
       </c>
       <c r="F27" t="n">
-        <v>7.116447838562187</v>
+        <v>7.116317433444128</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>167.5768560070752</v>
+        <v>167.5839421691818</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4748582105084538</v>
+        <v>0.4749686251990226</v>
       </c>
       <c r="D28" t="n">
-        <v>2786.532483270082</v>
+        <v>2786.540436729959</v>
       </c>
       <c r="E28" t="n">
-        <v>13.74968403906316</v>
+        <v>13.75268484112946</v>
       </c>
       <c r="F28" t="n">
-        <v>6.932329568327187</v>
+        <v>6.932244079518236</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>187.4853565771783</v>
+        <v>187.4819447495519</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4210554682915552</v>
+        <v>0.4211423960427078</v>
       </c>
       <c r="D29" t="n">
-        <v>2833.355930129411</v>
+        <v>2833.34372118676</v>
       </c>
       <c r="E29" t="n">
-        <v>66.49418245860842</v>
+        <v>66.50860822930777</v>
       </c>
       <c r="F29" t="n">
-        <v>7.09011299056551</v>
+        <v>7.089993614660373</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.09006575851168</v>
+        <v>98.09393266051887</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09469756531514828</v>
+        <v>0.09471078880958558</v>
       </c>
       <c r="D30" t="n">
-        <v>2639.413021744163</v>
+        <v>2639.402401267184</v>
       </c>
       <c r="E30" t="n">
-        <v>66.49418245860842</v>
+        <v>66.50860822930777</v>
       </c>
       <c r="F30" t="n">
-        <v>7.287908549826286</v>
+        <v>7.287817384558921</v>
       </c>
       <c r="G30" t="n">
-        <v>98.5348514788725</v>
+        <v>98.53410369251314</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.05177132672588</v>
+        <v>69.03403776440109</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02994339078369021</v>
+        <v>0.02992028737855829</v>
       </c>
       <c r="D31" t="n">
-        <v>2510.509165842116</v>
+        <v>2510.464926552737</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07939980519828</v>
+        <v>36.08806208671631</v>
       </c>
       <c r="F31" t="n">
-        <v>7.43508362262219</v>
+        <v>7.435290834103167</v>
       </c>
       <c r="G31" t="n">
-        <v>95.12010575892273</v>
+        <v>95.11960424596523</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.67719268763426</v>
+        <v>42.73069698934154</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008506207680624951</v>
+        <v>0.008530034041645223</v>
       </c>
       <c r="D32" t="n">
-        <v>2510.509165842116</v>
+        <v>2510.464926552737</v>
       </c>
       <c r="E32" t="n">
-        <v>4.434557919903629</v>
+        <v>4.448653393129014</v>
       </c>
       <c r="F32" t="n">
-        <v>7.991087493672905</v>
+        <v>7.989696866710312</v>
       </c>
       <c r="G32" t="n">
-        <v>97.17528467401235</v>
+        <v>97.16931470455</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.47700753733812</v>
+        <v>25.48220224146843</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003261196950536973</v>
+        <v>0.003262203352670239</v>
       </c>
       <c r="D33" t="n">
-        <v>2506.213377593892</v>
+        <v>2506.076250028301</v>
       </c>
       <c r="E33" t="n">
-        <v>4.434557919903629</v>
+        <v>4.448653393129014</v>
       </c>
       <c r="F33" t="n">
-        <v>8.408646531852623</v>
+        <v>8.408047579474598</v>
       </c>
       <c r="G33" t="n">
-        <v>98.31366028173905</v>
+        <v>98.3076476075974</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.47700753733812</v>
+        <v>25.48220224146843</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003261196950536973</v>
+        <v>0.003262203352670239</v>
       </c>
       <c r="D34" t="n">
-        <v>106.8239148845228</v>
+        <v>106.8456369816055</v>
       </c>
       <c r="E34" t="n">
-        <v>4.434557919903629</v>
+        <v>4.448653393129014</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.50023390398593</v>
+        <v>27.50543191402386</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>115.9199135521452</v>
+        <v>115.9416348333116</v>
       </c>
       <c r="E35" t="n">
-        <v>4.434557919903629</v>
+        <v>4.448653393129014</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.3777439997012</v>
+        <v>500.3681862999891</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3469.074479800638</v>
+        <v>3469.053392993913</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082127549560166</v>
+        <v>5.082110064281464</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>197.0785325604272</v>
       </c>
       <c r="E41" t="n">
-        <v>6.046823241790628</v>
+        <v>6.047025411534669</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.3777439997012</v>
+        <v>515.3681862999891</v>
       </c>
       <c r="C42" t="n">
-        <v>7.156218086292364</v>
+        <v>7.157377821947335</v>
       </c>
       <c r="D42" t="n">
-        <v>3446.84393476713</v>
+        <v>3446.805158327546</v>
       </c>
       <c r="E42" t="n">
-        <v>6.046823241790628</v>
+        <v>6.047025411534669</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.987006824548189</v>
+        <v>5.986986225993371</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.987006824548189</v>
+        <v>5.986986225993371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.987006824548189</v>
+        <v>5.986986225993371</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.987006824548189</v>
+        <v>5.986986225993371</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381367301992743</v>
+        <v>2.381359108795984</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944166</v>
+        <v>0.05094889585944173</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
@@ -3415,7 +3415,7 @@
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.69384811786492</v>
+        <v>1.694631124657151</v>
       </c>
       <c r="C2" t="n">
-        <v>1.846042420043055</v>
+        <v>1.846788857534066</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9175564437058896</v>
+        <v>0.9176095674087592</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2640593522582017</v>
+        <v>0.2639817787094804</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>131.8699370521709</v>
+        <v>131.8853274047457</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.11921359906832</v>
+        <v>32.1206340194595</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.229685956311164</v>
+        <v>6.229718611246279</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.27967535025152</v>
+        <v>49.29143740458126</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.71377653820965</v>
+        <v>31.72004284506416</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8482189580537691</v>
+        <v>0.8482192770817175</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.89607513672188</v>
+        <v>12.89876726600595</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7253658318644646</v>
+        <v>0.725333713704321</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.6507737535216</v>
+        <v>4.653103592799362</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7190589970137927</v>
+        <v>0.7187128768149965</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01904992179838954</v>
+        <v>0.01952370071178011</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03330321558059263</v>
+        <v>0.03393612597308861</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0403367329309375</v>
+        <v>0.04046494170688689</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0452126094446715</v>
+        <v>0.04535602762059573</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8921567108463224</v>
+        <v>0.8921623834736389</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40038.72716459348</v>
+        <v>40041.39800564751</v>
       </c>
       <c r="C2" t="n">
-        <v>40443.15875211463</v>
+        <v>40445.85657136112</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87048.59566120738</v>
+        <v>87048.33137797144</v>
       </c>
       <c r="C3" t="n">
-        <v>87927.87440525998</v>
+        <v>87927.60745249641</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35128.1595473611</v>
+        <v>35125.24776872647</v>
       </c>
       <c r="C4" t="n">
-        <v>35482.98944177889</v>
+        <v>35480.04825123886</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>458.6227807950912</v>
+        <v>458.6663829210083</v>
       </c>
       <c r="C5" t="n">
-        <v>463.2553341364557</v>
+        <v>463.2993766878872</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29920.59726828126</v>
+        <v>29929.12769789167</v>
       </c>
       <c r="C6" t="n">
-        <v>30222.82552351643</v>
+        <v>30231.4421190825</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33774.13106720958</v>
+        <v>33780.71941903686</v>
       </c>
       <c r="C7" t="n">
-        <v>34115.2839062723</v>
+        <v>34121.93880710794</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.2476307678957</v>
+        <v>67.28519616382462</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.42144283449862</v>
+        <v>73.38450969452302</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.371342972629986</v>
+        <v>6.370181095399079</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17300.48539877426</v>
+        <v>17300.3187102365</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2350.271565656297</v>
+        <v>2350.86077631808</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11327.86237406062</v>
+        <v>11327.93056553495</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.905251877992</v>
+        <v>3937.891703345382</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.958310619269</v>
+        <v>2844.94852241768</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.58746573587</v>
+        <v>10560.55113157989</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19693.72259388943</v>
+        <v>19694.25213366103</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8395305772892505</v>
+        <v>0.8396285577074619</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.7795087258285</v>
+        <v>465.7775190553425</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>871.4604328764814</v>
+        <v>871.4581801157389</v>
       </c>
       <c r="E6" t="n">
         <v>515.4058393319</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.2812301737558</v>
+        <v>305.2795976599277</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>693.1430211010069</v>
+        <v>693.1412412717494</v>
       </c>
       <c r="E7" t="n">
         <v>515.4058393319</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.6353085347105</v>
+        <v>232.6352902790534</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.5739865061576</v>
+        <v>614.5739669142184</v>
       </c>
       <c r="E8" t="n">
         <v>515.4058393319</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.7149447480785</v>
+        <v>231.7149272734882</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.5863459693715</v>
+        <v>613.586327219174</v>
       </c>
       <c r="E9" t="n">
         <v>515.4058393319</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.6273999175681</v>
+        <v>171.6268853500001</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.484402355206</v>
+        <v>549.4838564039766</v>
       </c>
       <c r="E10" t="n">
         <v>515.4058393319</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.4656110719443</v>
+        <v>100.462066265709</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.3968350195069</v>
+        <v>474.3931130973443</v>
       </c>
       <c r="E11" t="n">
         <v>515.4058393319</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>509.2561504665118</v>
+        <v>509.2532984468921</v>
       </c>
       <c r="C3" t="n">
-        <v>7.876267193200444</v>
+        <v>7.876054920191253</v>
       </c>
       <c r="D3" t="n">
-        <v>3423.780038908221</v>
+        <v>3423.775749729434</v>
       </c>
       <c r="E3" t="n">
-        <v>63.36698492580545</v>
+        <v>63.36501963483855</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.0714897272894</v>
+        <v>297.0698614948727</v>
       </c>
       <c r="C4" t="n">
-        <v>8.239160785433725</v>
+        <v>8.238969961001622</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.077098670776</v>
+        <v>2755.080016241335</v>
       </c>
       <c r="E4" t="n">
-        <v>63.36698492580545</v>
+        <v>63.36501963483855</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.3858130273868</v>
+        <v>295.3852969872241</v>
       </c>
       <c r="C5" t="n">
-        <v>8.239160785433725</v>
+        <v>8.238969961001622</v>
       </c>
       <c r="D5" t="n">
-        <v>1319.187349884998</v>
+        <v>1319.184649239023</v>
       </c>
       <c r="E5" t="n">
-        <v>63.36698492580545</v>
+        <v>63.36501963483855</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.5222431365771</v>
+        <v>161.5215913928474</v>
       </c>
       <c r="C6" t="n">
-        <v>8.239160785433725</v>
+        <v>8.238969961001622</v>
       </c>
       <c r="D6" t="n">
-        <v>686.522875879925</v>
+        <v>686.5199522702839</v>
       </c>
       <c r="E6" t="n">
-        <v>63.36698492580545</v>
+        <v>63.36501963483855</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.1542578417818</v>
+        <v>160.1536432261161</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6206639962074421</v>
+        <v>0.6206543016906879</v>
       </c>
       <c r="D7" t="n">
-        <v>676.1436790439409</v>
+        <v>676.1410085364397</v>
       </c>
       <c r="E7" t="n">
-        <v>63.36698492580545</v>
+        <v>63.36501963483855</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.8899316128161</v>
+        <v>173.8897580555169</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6143698116920061</v>
+        <v>0.6143655995375018</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.006635152908</v>
+        <v>2791.006867780219</v>
       </c>
       <c r="E8" t="n">
-        <v>15.08887059374385</v>
+        <v>15.08923186391475</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.1542577149919</v>
+        <v>160.1536430993281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6206639962074421</v>
+        <v>0.6206543016906879</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.610955791566</v>
+        <v>2757.610280519153</v>
       </c>
       <c r="E9" t="n">
-        <v>15.08887059374385</v>
+        <v>15.08923186391475</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.3259232245395</v>
+        <v>156.3284637225006</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6206639962074421</v>
+        <v>0.6206543016906879</v>
       </c>
       <c r="D10" t="n">
-        <v>659.5669589775068</v>
+        <v>659.5779390888198</v>
       </c>
       <c r="E10" t="n">
-        <v>78.45585551954929</v>
+        <v>78.45425149875331</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.3259232245395</v>
+        <v>156.3284637225006</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6206639962074421</v>
+        <v>0.6206543016906879</v>
       </c>
       <c r="D11" t="n">
-        <v>659.5669589775068</v>
+        <v>659.5779390888198</v>
       </c>
       <c r="E11" t="n">
-        <v>93.93292773709823</v>
+        <v>93.93436702372169</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6206639962074421</v>
+        <v>0.6206543016906879</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6848019921421</v>
+        <v>251.684793851789</v>
       </c>
       <c r="E12" t="n">
-        <v>93.93874217817601</v>
+        <v>93.93541809242322</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.7305991461626</v>
+        <v>40.73007886621946</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>171.1959840567668</v>
+        <v>171.193810309946</v>
       </c>
       <c r="E13" t="n">
-        <v>73.88318409002514</v>
+        <v>73.88221070175312</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.7305991461626</v>
+        <v>40.73007886621946</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>171.1959840567668</v>
+        <v>171.193810309946</v>
       </c>
       <c r="E14" t="n">
-        <v>73.88318409002514</v>
+        <v>73.88221070175312</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.95457496756075</v>
+        <v>64.95657880162042</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02499076357891272</v>
+        <v>0.02499300419316291</v>
       </c>
       <c r="D15" t="n">
-        <v>271.9257481202458</v>
+        <v>271.9341409666501</v>
       </c>
       <c r="E15" t="n">
-        <v>64.80772044116596</v>
+        <v>64.81415549254703</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.49012223746365</v>
+        <v>42.48946884429972</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02499976984141898</v>
+        <v>0.02499639250104144</v>
       </c>
       <c r="D16" t="n">
-        <v>177.9567071981231</v>
+        <v>177.9539731092894</v>
       </c>
       <c r="E16" t="n">
-        <v>64.81882447891905</v>
+        <v>64.81841835320409</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.44900922036437</v>
+        <v>53.44716055596169</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>223.7910016056657</v>
+        <v>223.7832612478116</v>
       </c>
       <c r="E19" t="n">
         <v>87.07360016323535</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.2134238672532</v>
+        <v>99.21045007579175</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09860755553954025</v>
+        <v>0.09860568480074429</v>
       </c>
       <c r="D20" t="n">
-        <v>2630.96729808495</v>
+        <v>2630.968198317178</v>
       </c>
       <c r="E20" t="n">
-        <v>35.69028707176508</v>
+        <v>35.68783452724418</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.7903181343052</v>
+        <v>97.78979371464385</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09367717776256324</v>
+        <v>0.09367540056070707</v>
       </c>
       <c r="D21" t="n">
-        <v>409.8477939797235</v>
+        <v>409.8455831556499</v>
       </c>
       <c r="E21" t="n">
-        <v>35.69028707176508</v>
+        <v>35.68783452724418</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.88322867227212</v>
+        <v>62.88505408784451</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2920784508034</v>
+        <v>263.299721465805</v>
       </c>
       <c r="E22" t="n">
         <v>691.2198825216667</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.98750623675739</v>
+        <v>38.98727335881347</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.10548655697204</v>
+        <v>66.10750605507997</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02630606692517128</v>
+        <v>0.02630842546648727</v>
       </c>
       <c r="D25" t="n">
-        <v>2501.291502681854</v>
+        <v>2501.286386133132</v>
       </c>
       <c r="E25" t="n">
-        <v>29.12723714905234</v>
+        <v>29.12996341941345</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.4293885916022</v>
+        <v>506.4268294611218</v>
       </c>
       <c r="C26" t="n">
-        <v>7.276764588873284</v>
+        <v>7.27659700476596</v>
       </c>
       <c r="D26" t="n">
-        <v>3423.780038908221</v>
+        <v>3423.775749729434</v>
       </c>
       <c r="E26" t="n">
-        <v>58.79424657099398</v>
+        <v>58.79296986926688</v>
       </c>
       <c r="F26" t="n">
-        <v>6.799002016011431</v>
+        <v>6.799006552075646</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.4663967945287</v>
+        <v>187.4653320583175</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4637096397594055</v>
+        <v>0.4637017194220242</v>
       </c>
       <c r="D27" t="n">
-        <v>2830.877473788882</v>
+        <v>2830.875634172259</v>
       </c>
       <c r="E27" t="n">
-        <v>58.79424657099398</v>
+        <v>58.79296986926688</v>
       </c>
       <c r="F27" t="n">
-        <v>7.041379562540701</v>
+        <v>7.041383231817283</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.2530036321029</v>
+        <v>171.2529568548254</v>
       </c>
       <c r="C28" t="n">
-        <v>0.528503289277597</v>
+        <v>0.5284984716632348</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.006635152908</v>
+        <v>2791.006867780219</v>
       </c>
       <c r="E28" t="n">
-        <v>15.08887059374385</v>
+        <v>15.08923186391475</v>
       </c>
       <c r="F28" t="n">
-        <v>6.89484302924883</v>
+        <v>6.894847600417508</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.6986947488103</v>
+        <v>183.6976861087051</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4637096397594055</v>
+        <v>0.4637017194220242</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.734802665507</v>
+        <v>2822.733090418754</v>
       </c>
       <c r="E29" t="n">
-        <v>73.88311716473783</v>
+        <v>73.88220173318163</v>
       </c>
       <c r="F29" t="n">
-        <v>7.023629033351308</v>
+        <v>7.02363294017687</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.21332525466977</v>
+        <v>99.21066610709045</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09860365213371931</v>
+        <v>0.09859424988651953</v>
       </c>
       <c r="D30" t="n">
-        <v>2630.967374269044</v>
+        <v>2630.968031053528</v>
       </c>
       <c r="E30" t="n">
-        <v>73.88311716473783</v>
+        <v>73.88220173318163</v>
       </c>
       <c r="F30" t="n">
-        <v>7.247129212175677</v>
+        <v>7.247173484838057</v>
       </c>
       <c r="G30" t="n">
-        <v>98.08014272770795</v>
+        <v>98.08036404670811</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.10387022228252</v>
+        <v>66.10984855266292</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02630417936146906</v>
+        <v>0.02631116145860296</v>
       </c>
       <c r="D31" t="n">
-        <v>2501.293756572693</v>
+        <v>2501.283155857214</v>
       </c>
       <c r="E31" t="n">
-        <v>38.20263387262422</v>
+        <v>38.19800966004805</v>
       </c>
       <c r="F31" t="n">
-        <v>7.464495460845178</v>
+        <v>7.464348645059972</v>
       </c>
       <c r="G31" t="n">
-        <v>94.95811316860645</v>
+        <v>94.95718925316604</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>56.15498082975677</v>
+        <v>56.15363837658225</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01665518493806831</v>
+        <v>0.01665412233429312</v>
       </c>
       <c r="D32" t="n">
-        <v>2501.293756572693</v>
+        <v>2501.283155857214</v>
       </c>
       <c r="E32" t="n">
-        <v>9.064359611106077</v>
+        <v>9.063792348549029</v>
       </c>
       <c r="F32" t="n">
-        <v>7.664502701854318</v>
+        <v>7.664498568418401</v>
       </c>
       <c r="G32" t="n">
-        <v>95.7404285193407</v>
+        <v>95.74008590065118</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>27.13457612940425</v>
+        <v>27.13436340652709</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003596403981642935</v>
+        <v>0.003596359107602437</v>
       </c>
       <c r="D33" t="n">
-        <v>2454.947981477417</v>
+        <v>2454.943612191315</v>
       </c>
       <c r="E33" t="n">
-        <v>9.064359611106077</v>
+        <v>9.063792348549029</v>
       </c>
       <c r="F33" t="n">
-        <v>8.193634952380442</v>
+        <v>8.19362592517227</v>
       </c>
       <c r="G33" t="n">
-        <v>96.08387603779138</v>
+        <v>96.08371331968321</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.13457612940425</v>
+        <v>27.13436340652709</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003596403981642935</v>
+        <v>0.003596359107602437</v>
       </c>
       <c r="D34" t="n">
-        <v>113.7546893944697</v>
+        <v>113.7537999970218</v>
       </c>
       <c r="E34" t="n">
-        <v>9.064359611106077</v>
+        <v>9.063792348549029</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.15880682636919</v>
+        <v>29.15859398058473</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>122.850359495137</v>
+        <v>122.8494701471051</v>
       </c>
       <c r="E35" t="n">
-        <v>9.064359611106077</v>
+        <v>9.063792348549029</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.3777439997012</v>
+        <v>500.3681862999891</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3469.074479800638</v>
+        <v>3469.053392993913</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082127549560166</v>
+        <v>5.082110064281464</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.3777439997012</v>
+        <v>515.3681862999891</v>
       </c>
       <c r="C42" t="n">
-        <v>7.156218086292364</v>
+        <v>7.157377821947335</v>
       </c>
       <c r="D42" t="n">
-        <v>3446.84393476713</v>
+        <v>3446.805158327546</v>
       </c>
       <c r="E42" t="n">
-        <v>6.046823241790628</v>
+        <v>6.047025411534669</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=8, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=8, Volume=10x15x4.xlsx
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6576619734839194</v>
+        <v>0.6944634504331696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6864774924474508</v>
+        <v>0.7119014349302059</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9580240877806534</v>
+        <v>0.9755050578051638</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.40009954766017</v>
+        <v>58.81469474512309</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.85835862943784</v>
+        <v>37.38057403922084</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8483750312082845</v>
+        <v>0.8481980995293076</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.16802480139715</v>
+        <v>15.0381953123832</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.6973204761503362</v>
+        <v>0.7052023424113294</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.953704115510942</v>
+        <v>5.059090454031945</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.6376992717122769</v>
+        <v>0.5513707424543035</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4200120013142278</v>
+        <v>1.336834939487104</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.2257951891852918</v>
+        <v>0.3905253751839896</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08244126551125115</v>
+        <v>0.1250743800131724</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09219712389428426</v>
+        <v>0.1395014068583632</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8941847861304281</v>
+        <v>0.896581495698902</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42370.6815918872</v>
+        <v>42233.51260232755</v>
       </c>
       <c r="C2" t="n">
-        <v>42798.66827463354</v>
+        <v>42660.1137397248</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90986.53561666164</v>
+        <v>89092.00401205558</v>
       </c>
       <c r="C3" t="n">
-        <v>91905.59153198145</v>
+        <v>89991.92324450059</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40089.0916644203</v>
+        <v>40681.92483603994</v>
       </c>
       <c r="C4" t="n">
-        <v>40494.03198426293</v>
+        <v>41092.85336973731</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>503.9449133220605</v>
+        <v>505.0490592765084</v>
       </c>
       <c r="C5" t="n">
-        <v>509.0352659818793</v>
+        <v>510.150564925766</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32708.3998960179</v>
+        <v>33127.67785049888</v>
       </c>
       <c r="C6" t="n">
-        <v>33038.78777375545</v>
+        <v>33462.30085908978</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38315.18550421097</v>
+        <v>39040.50937630816</v>
       </c>
       <c r="C7" t="n">
-        <v>38702.20758001108</v>
+        <v>39434.85795586683</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.47438579105841</v>
+        <v>80.97842746551066</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69.16346691436277</v>
+        <v>66.86511541648416</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.031543740356248</v>
+        <v>5.82585356378261</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.7775190553425</v>
+        <v>466.0149435615281</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>871.4581801157389</v>
+        <v>871.727006202553</v>
       </c>
       <c r="E6" t="n">
         <v>515.4058393319</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.2795976599277</v>
+        <v>308.9302703895395</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>693.1412412717494</v>
+        <v>697.1230021789402</v>
       </c>
       <c r="E7" t="n">
         <v>515.4058393319</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.6352902790534</v>
+        <v>235.2621701126998</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>614.5739669142184</v>
+        <v>617.3938834266103</v>
       </c>
       <c r="E8" t="n">
         <v>515.4058393319</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.7149272734882</v>
+        <v>234.3402834020082</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>613.586327219174</v>
+        <v>616.4040798078017</v>
       </c>
       <c r="E9" t="n">
         <v>515.4058393319</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.6268853500001</v>
+        <v>173.5078868082348</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.4838564039766</v>
+        <v>551.4799010238252</v>
       </c>
       <c r="E10" t="n">
         <v>515.4058393319</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.462066265709</v>
+        <v>101.0092498964471</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.3931130973443</v>
+        <v>474.9676558250035</v>
       </c>
       <c r="E11" t="n">
         <v>515.4058393319</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>509.2532984468921</v>
+        <v>508.3747588058275</v>
       </c>
       <c r="C3" t="n">
-        <v>7.876054920191253</v>
+        <v>8.360061082658582</v>
       </c>
       <c r="D3" t="n">
-        <v>3423.775749729434</v>
+        <v>3416.000350038445</v>
       </c>
       <c r="E3" t="n">
-        <v>63.36501963483855</v>
+        <v>63.20898792225844</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>297.0698614948727</v>
+        <v>300.9146235174168</v>
       </c>
       <c r="C4" t="n">
-        <v>8.238969961001622</v>
+        <v>8.699112619317658</v>
       </c>
       <c r="D4" t="n">
-        <v>2755.080016241335</v>
+        <v>2747.86025319797</v>
       </c>
       <c r="E4" t="n">
-        <v>63.36501963483855</v>
+        <v>63.20898792225844</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.3852969872241</v>
+        <v>298.8711974232996</v>
       </c>
       <c r="C5" t="n">
-        <v>8.238969961001622</v>
+        <v>8.699112619317658</v>
       </c>
       <c r="D5" t="n">
-        <v>1319.184649239023</v>
+        <v>1338.408905345049</v>
       </c>
       <c r="E5" t="n">
-        <v>63.36501963483855</v>
+        <v>63.20898792225844</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.5215913928474</v>
+        <v>163.3803604011244</v>
       </c>
       <c r="C6" t="n">
-        <v>8.238969961001622</v>
+        <v>8.699112619317658</v>
       </c>
       <c r="D6" t="n">
-        <v>686.5199522702839</v>
+        <v>694.8107526646633</v>
       </c>
       <c r="E6" t="n">
-        <v>63.36501963483855</v>
+        <v>63.20898792225844</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.1536432261161</v>
+        <v>161.9207260929267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6206543016906879</v>
+        <v>0.6490295450779887</v>
       </c>
       <c r="D7" t="n">
-        <v>676.1410085364397</v>
+        <v>683.823969403914</v>
       </c>
       <c r="E7" t="n">
-        <v>63.36501963483855</v>
+        <v>63.20898792225844</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>173.8897580555169</v>
+        <v>175.4174657495211</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6143655995375018</v>
+        <v>0.6428329709255516</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.006867780219</v>
+        <v>2792.563903302178</v>
       </c>
       <c r="E8" t="n">
-        <v>15.08923186391475</v>
+        <v>15.28930579516435</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.1536430993281</v>
+        <v>161.9207259625172</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6206543016906879</v>
+        <v>0.6490295450779887</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.610280519153</v>
+        <v>2759.535183434477</v>
       </c>
       <c r="E9" t="n">
-        <v>15.08923186391475</v>
+        <v>15.28930579516435</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.3284637225006</v>
+        <v>157.8354222348167</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6206543016906879</v>
+        <v>0.6490295450779887</v>
       </c>
       <c r="D10" t="n">
-        <v>659.5779390888198</v>
+        <v>666.1145959157357</v>
       </c>
       <c r="E10" t="n">
-        <v>78.45425149875331</v>
+        <v>78.49829371742278</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.3284637225006</v>
+        <v>157.8354222348167</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6206543016906879</v>
+        <v>0.6490295450779887</v>
       </c>
       <c r="D11" t="n">
-        <v>659.5779390888198</v>
+        <v>666.1145959157357</v>
       </c>
       <c r="E11" t="n">
-        <v>93.93436702372169</v>
+        <v>94.2083570920679</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6206543016906879</v>
+        <v>0.6490295450779887</v>
       </c>
       <c r="D12" t="n">
-        <v>251.684793851789</v>
+        <v>251.7086200267601</v>
       </c>
       <c r="E12" t="n">
-        <v>93.93541809242322</v>
+        <v>94.2033712059276</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.73007886621946</v>
+        <v>40.15619516757494</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>171.193810309946</v>
+        <v>168.7961243601105</v>
       </c>
       <c r="E13" t="n">
-        <v>73.88221070175312</v>
+        <v>78.49829371743519</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.73007886621946</v>
+        <v>40.15619516757494</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>171.193810309946</v>
+        <v>168.7961243601105</v>
       </c>
       <c r="E14" t="n">
-        <v>73.88221070175312</v>
+        <v>78.49829371743519</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.95657880162042</v>
+        <v>64.02252888071052</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02499300419316291</v>
+        <v>0.02396688747274963</v>
       </c>
       <c r="D15" t="n">
-        <v>271.9341409666501</v>
+        <v>268.0222050365189</v>
       </c>
       <c r="E15" t="n">
-        <v>64.81415549254703</v>
+        <v>64.74660523186142</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.48946884429972</v>
+        <v>42.2935224311608</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02499639250104144</v>
+        <v>0.02396688747275014</v>
       </c>
       <c r="D16" t="n">
-        <v>177.9539731092894</v>
+        <v>177.1340333956977</v>
       </c>
       <c r="E16" t="n">
-        <v>64.81841835320409</v>
+        <v>64.74660523188552</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.44716055596169</v>
+        <v>52.88297223878178</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>223.7832612478116</v>
+        <v>221.4210047637793</v>
       </c>
       <c r="E19" t="n">
         <v>87.07360016323535</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.21045007579175</v>
+        <v>101.3899077210588</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09860568480074429</v>
+        <v>0.09949567565624506</v>
       </c>
       <c r="D20" t="n">
-        <v>2630.968198317178</v>
+        <v>2626.802561197141</v>
       </c>
       <c r="E20" t="n">
-        <v>35.68783452724418</v>
+        <v>36.91324390184592</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.78979371464385</v>
+        <v>98.03835849027384</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09367540056070707</v>
+        <v>0.09452089187343281</v>
       </c>
       <c r="D21" t="n">
-        <v>409.8455831556499</v>
+        <v>410.8935070700041</v>
       </c>
       <c r="E21" t="n">
-        <v>35.68783452724418</v>
+        <v>36.91324390184592</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.88505408784451</v>
+        <v>62.01984241552464</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>263.299721465805</v>
+        <v>259.6770801938017</v>
       </c>
       <c r="E22" t="n">
         <v>691.2198825216667</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.98727335881347</v>
+        <v>38.91620204100405</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.10750605507997</v>
+        <v>65.16616808677259</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02630842546648727</v>
+        <v>0.02522830260289435</v>
       </c>
       <c r="D25" t="n">
-        <v>2501.286386133132</v>
+        <v>2505.146089064283</v>
       </c>
       <c r="E25" t="n">
-        <v>29.12996341941345</v>
+        <v>27.83336133002624</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.4268294611218</v>
+        <v>505.7372805570194</v>
       </c>
       <c r="C26" t="n">
-        <v>7.27659700476596</v>
+        <v>7.801038481855269</v>
       </c>
       <c r="D26" t="n">
-        <v>3423.775749729434</v>
+        <v>3416.000350038445</v>
       </c>
       <c r="E26" t="n">
-        <v>58.79296986926688</v>
+        <v>63.20898792225844</v>
       </c>
       <c r="F26" t="n">
-        <v>6.799006552075646</v>
+        <v>6.758765190984281</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>187.4653320583175</v>
+        <v>185.3381464485057</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4637017194220242</v>
+        <v>0.4918871800302931</v>
       </c>
       <c r="D27" t="n">
-        <v>2830.875634172259</v>
+        <v>2824.619673524597</v>
       </c>
       <c r="E27" t="n">
-        <v>58.79296986926688</v>
+        <v>63.20898792225844</v>
       </c>
       <c r="F27" t="n">
-        <v>7.041383231817283</v>
+        <v>7.001328812098969</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.2529568548254</v>
+        <v>172.8591218732382</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5284984716632348</v>
+        <v>0.5584136544120859</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.006867780219</v>
+        <v>2792.563903302178</v>
       </c>
       <c r="E28" t="n">
-        <v>15.08923186391475</v>
+        <v>15.28930579516435</v>
       </c>
       <c r="F28" t="n">
-        <v>6.894847600417508</v>
+        <v>6.873916828285944</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>183.6976861087051</v>
+        <v>182.4787508566184</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4637017194220242</v>
+        <v>0.4918871800302931</v>
       </c>
       <c r="D29" t="n">
-        <v>2822.733090418754</v>
+        <v>2818.37609229219</v>
       </c>
       <c r="E29" t="n">
-        <v>73.88220173318163</v>
+        <v>78.49829371742278</v>
       </c>
       <c r="F29" t="n">
-        <v>7.02363294017687</v>
+        <v>6.987668379640769</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.21066610709045</v>
+        <v>101.3899077210665</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09859424988651953</v>
+        <v>0.1065529376525528</v>
       </c>
       <c r="D30" t="n">
-        <v>2630.968031053528</v>
+        <v>2626.802561197138</v>
       </c>
       <c r="E30" t="n">
-        <v>73.88220173318163</v>
+        <v>78.49829371742278</v>
       </c>
       <c r="F30" t="n">
-        <v>7.247173484838057</v>
+        <v>7.201488065566368</v>
       </c>
       <c r="G30" t="n">
-        <v>98.08036404670811</v>
+        <v>97.7380726072783</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.10984855266292</v>
+        <v>65.16616808676861</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02631116145860296</v>
+        <v>0.02522830260289274</v>
       </c>
       <c r="D31" t="n">
-        <v>2501.283155857214</v>
+        <v>2505.146089064319</v>
       </c>
       <c r="E31" t="n">
-        <v>38.19800966004805</v>
+        <v>41.5850498155876</v>
       </c>
       <c r="F31" t="n">
-        <v>7.464348645059972</v>
+        <v>7.494075951368062</v>
       </c>
       <c r="G31" t="n">
-        <v>94.95718925316604</v>
+        <v>95.19631626264666</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>56.15363837658225</v>
+        <v>65.16616808676861</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01665412233429312</v>
+        <v>0.02522830260289274</v>
       </c>
       <c r="D32" t="n">
-        <v>2501.283155857214</v>
+        <v>2505.146089064319</v>
       </c>
       <c r="E32" t="n">
-        <v>9.063792348549029</v>
+        <v>13.75168848554966</v>
       </c>
       <c r="F32" t="n">
-        <v>7.664498568418401</v>
+        <v>7.494075951368062</v>
       </c>
       <c r="G32" t="n">
-        <v>95.74008590065118</v>
+        <v>95.19631626264666</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>27.13436340652709</v>
+        <v>28.7345477581884</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003596359107602437</v>
+        <v>0.003948035268420485</v>
       </c>
       <c r="D33" t="n">
-        <v>2454.943612191315</v>
+        <v>2407.933667412108</v>
       </c>
       <c r="E33" t="n">
-        <v>9.063792348549029</v>
+        <v>13.75168848554966</v>
       </c>
       <c r="F33" t="n">
-        <v>8.19362592517227</v>
+        <v>7.996635175421677</v>
       </c>
       <c r="G33" t="n">
-        <v>96.08371331968321</v>
+        <v>94.02639253679857</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.13436340652709</v>
+        <v>28.7345477581884</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003596359107602437</v>
+        <v>0.003948035268420485</v>
       </c>
       <c r="D34" t="n">
-        <v>113.7537999970218</v>
+        <v>120.4438303492029</v>
       </c>
       <c r="E34" t="n">
-        <v>9.063792348549029</v>
+        <v>13.75168848554966</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.15859398058473</v>
+        <v>30.75965077472881</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>122.8494701471051</v>
+        <v>129.5390320144094</v>
       </c>
       <c r="E35" t="n">
-        <v>9.063792348549029</v>
+        <v>13.75168848554966</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=8, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=8, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>954.4969526878768</v>
       </c>
       <c r="E3" t="n">
-        <v>461.7618501269453</v>
+        <v>461.7132124233308</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.823528079116521</v>
+        <v>6.823549071993869</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>542.7418065770811</v>
+        <v>542.7422584662612</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>962.893776809291</v>
+        <v>962.8946739235821</v>
       </c>
       <c r="E5" t="n">
-        <v>468.5853782060618</v>
+        <v>468.5367614953247</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7792566998746572</v>
+        <v>0.7792565884479902</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220043934247526</v>
+        <v>0.1220042123303726</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03100105868020744</v>
+        <v>0.03100115491518636</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06120590653952981</v>
+        <v>0.06120609941418002</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006531941480852893</v>
+        <v>0.006531944892270823</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467.2825745313494</v>
+        <v>467.277181378282</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>876.5789696204612</v>
+        <v>876.5732191555603</v>
       </c>
       <c r="E6" t="n">
-        <v>468.5853782060618</v>
+        <v>468.5367614953247</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7792566998746572</v>
+        <v>0.7792565884479902</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1220043934247526</v>
+        <v>0.1220042123303726</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03100105868020744</v>
+        <v>0.03100115491518636</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06120590653952981</v>
+        <v>0.06120609941418002</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006531941480852893</v>
+        <v>0.006531944892270823</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>298.4743329097926</v>
+        <v>298.4658878327783</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>688.9341741530491</v>
+        <v>688.9253138722528</v>
       </c>
       <c r="E7" t="n">
-        <v>468.5853782060618</v>
+        <v>468.5367614953247</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7792566998746572</v>
+        <v>0.7792565884479902</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1220043934247526</v>
+        <v>0.1220042123303726</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03100105868020744</v>
+        <v>0.03100115491518636</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06120590653952981</v>
+        <v>0.06120609941418002</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006531941480852893</v>
+        <v>0.006531944892270823</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.4560477027987</v>
+        <v>228.7001623371241</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>613.2168131310916</v>
+        <v>613.4791889605815</v>
       </c>
       <c r="E8" t="n">
-        <v>468.5853782060618</v>
+        <v>468.5367614953247</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7792566998746572</v>
+        <v>0.7792565884479902</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220043934247526</v>
+        <v>0.1220042123303726</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03100105868020744</v>
+        <v>0.03100115491518636</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06120590653952981</v>
+        <v>0.06120609941418002</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006531941480852893</v>
+        <v>0.006531944892270823</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227.5348618675106</v>
+        <v>227.7793853037216</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>612.2280938960579</v>
+        <v>612.4908596943561</v>
       </c>
       <c r="E9" t="n">
-        <v>468.5853782060618</v>
+        <v>468.5367614953247</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7792566998746572</v>
+        <v>0.7792565884479902</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1220043934247526</v>
+        <v>0.1220042123303726</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03100105868020744</v>
+        <v>0.03100115491518636</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06120590653952981</v>
+        <v>0.06120609941418002</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006531941480852893</v>
+        <v>0.006531944892270823</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>167.071563984175</v>
+        <v>167.5789438824173</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>547.7116929899499</v>
+        <v>548.250493006899</v>
       </c>
       <c r="E10" t="n">
-        <v>468.5853782060618</v>
+        <v>468.5367614953247</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7792566998746572</v>
+        <v>0.7792565884479902</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1220043934247526</v>
+        <v>0.1220042123303726</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03100105868020744</v>
+        <v>0.03100115491518636</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06120590653952981</v>
+        <v>0.06120609941418002</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006531941480852893</v>
+        <v>0.006531944892270823</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.09134687383703</v>
+        <v>98.33316742655775</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.892649984936</v>
+        <v>475.1470419518121</v>
       </c>
       <c r="E11" t="n">
-        <v>468.5853782060618</v>
+        <v>468.5367614953247</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7792566998746572</v>
+        <v>0.7792565884479902</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1220043934247526</v>
+        <v>0.1220042123303726</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03100105868020744</v>
+        <v>0.03100115491518636</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06120590653952981</v>
+        <v>0.06120609941418002</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006531941480852893</v>
+        <v>0.006531944892270823</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.468083972776931</v>
+        <v>6.468103872115212</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3554441063395948</v>
+        <v>0.3554451998786617</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986986225993371</v>
+        <v>5.98696701949252</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986986225993371</v>
+        <v>5.98696701949252</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986986225993371</v>
+        <v>5.98696701949252</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986986225993371</v>
+        <v>5.98696701949252</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381359108795984</v>
+        <v>2.381351469296907</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1143,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944173</v>
+        <v>0.05094889585944168</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522553</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6944634504331696</v>
+        <v>0.6943952386840775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7119014349302059</v>
+        <v>0.7118493038883552</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9755050578051638</v>
+        <v>0.975480673916603</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.81469474512309</v>
+        <v>58.81342066326594</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.38057403922084</v>
+        <v>37.378247241037</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8481980995293076</v>
+        <v>0.8481997831197591</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.0381953123832</v>
+        <v>15.03859625062852</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.7052023424113294</v>
+        <v>0.7052311196976566</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.059090454031945</v>
+        <v>5.059475707714646</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.5513707424543035</v>
+        <v>0.5513635726369023</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.336834939487104</v>
+        <v>1.337101463885776</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.3905253751839896</v>
+        <v>0.3905591472297019</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1250743800131724</v>
+        <v>0.1250839353246533</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1395014068583632</v>
+        <v>0.1395119749349334</v>
       </c>
       <c r="D12" t="n">
-        <v>0.896581495698902</v>
+        <v>0.8965820703419252</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42233.51260232755</v>
+        <v>42231.96639491813</v>
       </c>
       <c r="C2" t="n">
-        <v>42660.1137397248</v>
+        <v>42658.55191405872</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89092.00401205558</v>
+        <v>89094.87325591699</v>
       </c>
       <c r="C3" t="n">
-        <v>89991.92324450059</v>
+        <v>89994.82147062322</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40681.92483603994</v>
+        <v>40670.90923440141</v>
       </c>
       <c r="C4" t="n">
-        <v>41092.85336973731</v>
+        <v>41081.72649939536</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505.0490592765084</v>
+        <v>505.0622402850429</v>
       </c>
       <c r="C5" t="n">
-        <v>510.150564925766</v>
+        <v>510.1638790758009</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33127.67785049888</v>
+        <v>33134.61921055846</v>
       </c>
       <c r="C6" t="n">
-        <v>33462.30085908978</v>
+        <v>33469.31233389744</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39040.50937630816</v>
+        <v>39041.64827420068</v>
       </c>
       <c r="C7" t="n">
-        <v>39434.85795586683</v>
+        <v>39436.00835777847</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80.97842746551066</v>
+        <v>80.97370766786202</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66.86511541648416</v>
+        <v>66.86946611060841</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.82585356378261</v>
+        <v>5.826222667306982</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>515.3685816201406</v>
+        <v>515.3658662068341</v>
       </c>
       <c r="C3" t="n">
-        <v>7.157737587918879</v>
+        <v>7.15653627611503</v>
       </c>
       <c r="D3" t="n">
-        <v>3446.804951456505</v>
+        <v>3446.808282178049</v>
       </c>
       <c r="E3" t="n">
-        <v>58.79296986926688</v>
+        <v>58.79527605593359</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.5898814326357</v>
+        <v>290.5820565870133</v>
       </c>
       <c r="C4" t="n">
-        <v>7.505934989334234</v>
+        <v>7.505081182896951</v>
       </c>
       <c r="D4" t="n">
-        <v>2765.8069325759</v>
+        <v>2765.818855483572</v>
       </c>
       <c r="E4" t="n">
-        <v>58.79296986926688</v>
+        <v>58.79527605593359</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.1340737218898</v>
+        <v>289.1685575458955</v>
       </c>
       <c r="C5" t="n">
-        <v>7.505934989334234</v>
+        <v>7.505081182896951</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.231802489132</v>
+        <v>1285.421072476059</v>
       </c>
       <c r="E5" t="n">
-        <v>58.79296986926688</v>
+        <v>58.79527605593359</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.9235958104362</v>
+        <v>162.4787354443981</v>
       </c>
       <c r="C6" t="n">
-        <v>7.505934989334234</v>
+        <v>7.505081182896951</v>
       </c>
       <c r="D6" t="n">
-        <v>687.8235056241346</v>
+        <v>690.2199541263288</v>
       </c>
       <c r="E6" t="n">
-        <v>58.79296986926688</v>
+        <v>58.79527605593359</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.2030171692364</v>
+        <v>156.7642836823242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5607844124344544</v>
+        <v>0.5689971340296174</v>
       </c>
       <c r="D7" t="n">
-        <v>658.9998022387576</v>
+        <v>661.4321433008779</v>
       </c>
       <c r="E7" t="n">
-        <v>58.79296986926688</v>
+        <v>58.79527605593359</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.1235751013017</v>
+        <v>170.7148120972997</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5542668878678572</v>
+        <v>0.557139589635032</v>
       </c>
       <c r="D8" t="n">
-        <v>2786.540436729959</v>
+        <v>2787.29898385586</v>
       </c>
       <c r="E8" t="n">
-        <v>13.75268484112946</v>
+        <v>13.69518834584812</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>156.2030170503291</v>
+        <v>156.7642835623151</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5607844124344544</v>
+        <v>0.5689971340296174</v>
       </c>
       <c r="D9" t="n">
-        <v>2753.188217586697</v>
+        <v>2753.826303018318</v>
       </c>
       <c r="E9" t="n">
-        <v>13.75268484112946</v>
+        <v>13.69518834584812</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.6079500550619</v>
+        <v>153.1182596065398</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5607844124344544</v>
+        <v>0.5689971340296174</v>
       </c>
       <c r="D10" t="n">
-        <v>643.4727703060803</v>
+        <v>645.6795416720701</v>
       </c>
       <c r="E10" t="n">
-        <v>72.54565471039635</v>
+        <v>72.49046440178171</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>152.6079500550619</v>
+        <v>153.1182596065398</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5607844124344544</v>
+        <v>0.5689971340296174</v>
       </c>
       <c r="D11" t="n">
-        <v>643.4727703060803</v>
+        <v>645.6795416720701</v>
       </c>
       <c r="E11" t="n">
-        <v>86.21087956544478</v>
+        <v>86.05547481784713</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5607844124344544</v>
+        <v>0.5689971340296174</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6345216579438</v>
+        <v>251.641417847776</v>
       </c>
       <c r="E12" t="n">
-        <v>86.20662094216455</v>
+        <v>86.0520750588711</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.32171416471539</v>
+        <v>42.34199799526124</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>177.8438813119733</v>
+        <v>177.9286322706592</v>
       </c>
       <c r="E13" t="n">
-        <v>72.55269674506721</v>
+        <v>72.48495854989638</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.90313634422</v>
+        <v>41.92485059631258</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>176.0949714438496</v>
+        <v>176.185697712125</v>
       </c>
       <c r="E14" t="n">
-        <v>66.50567133353255</v>
+        <v>66.43807500595263</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>67.86003488096225</v>
+        <v>67.89079597463427</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02842396510193792</v>
+        <v>0.02846234714661982</v>
       </c>
       <c r="D15" t="n">
-        <v>284.0973029931864</v>
+        <v>284.226193196903</v>
       </c>
       <c r="E15" t="n">
-        <v>62.06082994097525</v>
+        <v>62.04826424359725</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.07564275185911</v>
+        <v>43.08423011150182</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02842312620141984</v>
+        <v>0.0284738562378988</v>
       </c>
       <c r="D16" t="n">
-        <v>180.4071564940157</v>
+        <v>180.4430960446606</v>
       </c>
       <c r="E16" t="n">
-        <v>62.05701794040353</v>
+        <v>62.06027639868674</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>661.3997044104404</v>
+        <v>661.4016731760149</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.31712508011013</v>
+        <v>83.31737308730838</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.16379669675916</v>
+        <v>55.18836989743708</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>230.9708167693306</v>
+        <v>231.0737047605691</v>
       </c>
       <c r="E19" t="n">
-        <v>83.31712508011013</v>
+        <v>83.31737308730838</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.09583660908089</v>
+        <v>98.08336337444899</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09470942564333641</v>
+        <v>0.09468230495961563</v>
       </c>
       <c r="D20" t="n">
-        <v>2639.403001101316</v>
+        <v>2639.504512490123</v>
       </c>
       <c r="E20" t="n">
-        <v>30.41968838555755</v>
+        <v>30.38205260197623</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.67920138184844</v>
+        <v>96.67133905448185</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08997395436116959</v>
+        <v>0.08994818971163485</v>
       </c>
       <c r="D21" t="n">
-        <v>405.1643150077486</v>
+        <v>405.1311794985664</v>
       </c>
       <c r="E21" t="n">
-        <v>30.41968838555755</v>
+        <v>30.38205260197623</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.70300493268712</v>
+        <v>65.73167539678866</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>275.098481653161</v>
+        <v>275.2185248863541</v>
       </c>
       <c r="E22" t="n">
-        <v>661.3997044104404</v>
+        <v>661.4016731760149</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>376.83</v>
       </c>
       <c r="E23" t="n">
-        <v>661.3997044104404</v>
+        <v>661.4016731760149</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>39.2035195819462</v>
+        <v>39.20661509048793</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>661.3997044104404</v>
+        <v>661.4016731760149</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.03378890116471</v>
+        <v>69.06479323023473</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02991996326519781</v>
+        <v>0.02996036541749455</v>
       </c>
       <c r="D25" t="n">
-        <v>2510.462336939976</v>
+        <v>2510.627992160708</v>
       </c>
       <c r="E25" t="n">
-        <v>31.6402837983838</v>
+        <v>31.67702847800879</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>512.6972350821964</v>
+        <v>512.6910298795607</v>
       </c>
       <c r="C26" t="n">
-        <v>6.580598689609404</v>
+        <v>6.578967279983396</v>
       </c>
       <c r="D26" t="n">
-        <v>3446.804951456505</v>
+        <v>3446.808282178049</v>
       </c>
       <c r="E26" t="n">
-        <v>52.7559233881783</v>
+        <v>52.74290679018839</v>
       </c>
       <c r="F26" t="n">
-        <v>6.872421037282351</v>
+        <v>6.872534166012652</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.2227318404755</v>
+        <v>193.1663890005835</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4211423960427078</v>
+        <v>0.420736821314328</v>
       </c>
       <c r="D27" t="n">
-        <v>2845.544641563568</v>
+        <v>2845.447054841015</v>
       </c>
       <c r="E27" t="n">
-        <v>52.7559233881783</v>
+        <v>52.74290679018839</v>
       </c>
       <c r="F27" t="n">
-        <v>7.116317433444128</v>
+        <v>7.116542243847652</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>167.5839421691818</v>
+        <v>167.8953859054113</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4749686251990226</v>
+        <v>0.4741139235928428</v>
       </c>
       <c r="D28" t="n">
-        <v>2786.540436729959</v>
+        <v>2787.29898385586</v>
       </c>
       <c r="E28" t="n">
-        <v>13.75268484112946</v>
+        <v>13.69518834584812</v>
       </c>
       <c r="F28" t="n">
-        <v>6.932244079518236</v>
+        <v>6.934766721579621</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>187.4819447495519</v>
+        <v>187.5260343404929</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4211423960427078</v>
+        <v>0.420736821314328</v>
       </c>
       <c r="D29" t="n">
-        <v>2833.34372118676</v>
+        <v>2833.46072708043</v>
       </c>
       <c r="E29" t="n">
-        <v>66.50860822930777</v>
+        <v>66.43809513603651</v>
       </c>
       <c r="F29" t="n">
-        <v>7.089993614660373</v>
+        <v>7.090681089848304</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.09393266051887</v>
+        <v>98.08326320779389</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09471078880958558</v>
+        <v>0.09467430661192888</v>
       </c>
       <c r="D30" t="n">
-        <v>2639.402401267184</v>
+        <v>2639.504479972798</v>
       </c>
       <c r="E30" t="n">
-        <v>66.50860822930777</v>
+        <v>66.43809513603651</v>
       </c>
       <c r="F30" t="n">
-        <v>7.287817384558921</v>
+        <v>7.28826496672816</v>
       </c>
       <c r="G30" t="n">
-        <v>98.53410369251314</v>
+        <v>98.5393850195109</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.03403776440109</v>
+        <v>69.0640966245827</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02992028737855829</v>
+        <v>0.02995945715478273</v>
       </c>
       <c r="D31" t="n">
-        <v>2510.464926552737</v>
+        <v>2510.626982284519</v>
       </c>
       <c r="E31" t="n">
-        <v>36.08806208671631</v>
+        <v>36.06685937044805</v>
       </c>
       <c r="F31" t="n">
-        <v>7.435290834103167</v>
+        <v>7.435194052700347</v>
       </c>
       <c r="G31" t="n">
-        <v>95.11960424596523</v>
+        <v>95.12418266180464</v>
       </c>
     </row>
     <row r="32">
@@ -2890,22 +2890,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.73069698934154</v>
+        <v>42.46044891832969</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008530034041645223</v>
+        <v>0.008410273887868698</v>
       </c>
       <c r="D32" t="n">
-        <v>2510.464926552737</v>
+        <v>2510.626982284519</v>
       </c>
       <c r="E32" t="n">
-        <v>4.448653393129014</v>
+        <v>4.377798607265884</v>
       </c>
       <c r="F32" t="n">
-        <v>7.989696866710312</v>
+        <v>7.996532389374284</v>
       </c>
       <c r="G32" t="n">
-        <v>97.16931470455</v>
+        <v>97.19690654855128</v>
       </c>
     </row>
     <row r="33">
@@ -2915,22 +2915,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.48220224146843</v>
+        <v>25.45603832932034</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003262203352670239</v>
+        <v>0.003257137207910246</v>
       </c>
       <c r="D33" t="n">
-        <v>2506.076250028301</v>
+        <v>2506.701778608684</v>
       </c>
       <c r="E33" t="n">
-        <v>4.448653393129014</v>
+        <v>4.377798607265884</v>
       </c>
       <c r="F33" t="n">
-        <v>8.408047579474598</v>
+        <v>8.410846387691105</v>
       </c>
       <c r="G33" t="n">
-        <v>98.3076476075974</v>
+        <v>98.33526192557649</v>
       </c>
     </row>
     <row r="34">
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.48220224146843</v>
+        <v>25.45603832932034</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003262203352670239</v>
+        <v>0.003257137207910246</v>
       </c>
       <c r="D34" t="n">
-        <v>106.8456369816055</v>
+        <v>106.7362302529085</v>
       </c>
       <c r="E34" t="n">
-        <v>4.448653393129014</v>
+        <v>4.377798607265884</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.50543191402386</v>
+        <v>27.47925134114871</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>115.9416348333116</v>
+        <v>115.8322322014124</v>
       </c>
       <c r="E35" t="n">
-        <v>4.448653393129014</v>
+        <v>4.377798607265884</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.3681862999891</v>
+        <v>500.3618369758883</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3469.053392993913</v>
+        <v>3469.039384724691</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082110064281464</v>
+        <v>5.082093760660978</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>197.0785325604272</v>
       </c>
       <c r="E41" t="n">
-        <v>6.047025411534669</v>
+        <v>6.046883543943752</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.3681862999891</v>
+        <v>515.3618369758883</v>
       </c>
       <c r="C42" t="n">
-        <v>7.157377821947335</v>
+        <v>7.156590092474799</v>
       </c>
       <c r="D42" t="n">
-        <v>3446.805158327546</v>
+        <v>3446.79727931886</v>
       </c>
       <c r="E42" t="n">
-        <v>6.047025411534669</v>
+        <v>6.046883543943752</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986986225993371</v>
+        <v>5.98696701949252</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986986225993371</v>
+        <v>5.98696701949252</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986986225993371</v>
+        <v>5.98696701949252</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986986225993371</v>
+        <v>5.98696701949252</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381359108795984</v>
+        <v>2.381351469296907</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3400,19 +3400,19 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944173</v>
+        <v>0.05094889585944168</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522553</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.694631124657151</v>
+        <v>1.692587284528382</v>
       </c>
       <c r="C2" t="n">
-        <v>1.846788857534066</v>
+        <v>1.845360113863096</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9176095674087592</v>
+        <v>0.9172124572396345</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2639817787094804</v>
+        <v>0.2641219336959703</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>131.8853274047457</v>
+        <v>131.8624878143619</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.1206340194595</v>
+        <v>32.11852604989267</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.229718611246279</v>
+        <v>6.229670150670838</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.29143740458126</v>
+        <v>49.26901309455967</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.72004284506416</v>
+        <v>31.71753916067052</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8482192770817175</v>
+        <v>0.848200688110611</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.89876726600595</v>
+        <v>12.88608359756546</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.725333713704321</v>
+        <v>0.7255964330674034</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.653103592799362</v>
+        <v>4.648206585138392</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7187128768149965</v>
+        <v>0.7193482435903157</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01952370071178011</v>
+        <v>0.01718375118530467</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03393612597308861</v>
+        <v>0.03075169471592666</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04046494170688689</v>
+        <v>0.03982046466184788</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04535602762059573</v>
+        <v>0.04463507612523634</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8921623834736389</v>
+        <v>0.8921339027208175</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40041.39800564751</v>
+        <v>40040.32711592835</v>
       </c>
       <c r="C2" t="n">
-        <v>40445.85657136112</v>
+        <v>40444.77486457409</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87048.33137797144</v>
+        <v>87040.74242439411</v>
       </c>
       <c r="C3" t="n">
-        <v>87927.60745249641</v>
+        <v>87919.94184282233</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35125.24776872647</v>
+        <v>34995.79020315134</v>
       </c>
       <c r="C4" t="n">
-        <v>35480.04825123886</v>
+        <v>35349.28303348621</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>458.6663829210083</v>
+        <v>458.4379077514063</v>
       </c>
       <c r="C5" t="n">
-        <v>463.2993766878872</v>
+        <v>463.0685936882892</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29929.12769789167</v>
+        <v>29797.98363136317</v>
       </c>
       <c r="C6" t="n">
-        <v>30231.4421190825</v>
+        <v>30098.97336501331</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33780.71941903686</v>
+        <v>33909.13766936754</v>
       </c>
       <c r="C7" t="n">
-        <v>34121.93880710794</v>
+        <v>34251.65421148237</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.28519616382462</v>
+        <v>67.2059996540484</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.38450969452302</v>
+        <v>73.45555257378454</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.370181095399079</v>
+        <v>6.378772414448557</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17300.3187102365</v>
+        <v>17300.19201875683</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2350.86077631808</v>
+        <v>2350.478793462245</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11327.93056553495</v>
+        <v>11327.96541640011</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.891703345382</v>
+        <v>3937.879070424994</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.94852241768</v>
+        <v>2844.93939570448</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.55113157989</v>
+        <v>10560.51725289257</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19694.25213366103</v>
+        <v>19693.81451248429</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8396285577074619</v>
+        <v>0.8394831528113302</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466.0149435615281</v>
+        <v>466.0176198021736</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>871.727006202553</v>
+        <v>871.7300364857723</v>
       </c>
       <c r="E6" t="n">
         <v>515.4058393319</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>308.9302703895395</v>
+        <v>308.9278940743447</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>697.1230021789402</v>
+        <v>697.120409269907</v>
       </c>
       <c r="E7" t="n">
         <v>515.4058393319</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.2621701126998</v>
+        <v>235.2798606516447</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.3938834266103</v>
+        <v>617.4128790784603</v>
       </c>
       <c r="E8" t="n">
         <v>515.4058393319</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.3402834020082</v>
+        <v>234.3579532078225</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.4040798078017</v>
+        <v>616.4230496272901</v>
       </c>
       <c r="E9" t="n">
         <v>515.4058393319</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.5078868082348</v>
+        <v>173.5129427445069</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.4799010238252</v>
+        <v>551.4852670494241</v>
       </c>
       <c r="E10" t="n">
         <v>515.4058393319</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.0092498964471</v>
+        <v>101.0122345528583</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>474.9676558250035</v>
+        <v>474.9707898194071</v>
       </c>
       <c r="E11" t="n">
         <v>515.4058393319</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.3747588058275</v>
+        <v>508.3798619801885</v>
       </c>
       <c r="C3" t="n">
-        <v>8.360061082658582</v>
+        <v>8.359699136554013</v>
       </c>
       <c r="D3" t="n">
-        <v>3416.000350038445</v>
+        <v>3416.016497180419</v>
       </c>
       <c r="E3" t="n">
-        <v>63.20898792225844</v>
+        <v>63.20547132447881</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>300.9146235174168</v>
+        <v>300.9119845827169</v>
       </c>
       <c r="C4" t="n">
-        <v>8.699112619317658</v>
+        <v>8.698790171915716</v>
       </c>
       <c r="D4" t="n">
-        <v>2747.86025319797</v>
+        <v>2747.86544076564</v>
       </c>
       <c r="E4" t="n">
-        <v>63.20898792225844</v>
+        <v>63.20547132447881</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>298.8711974232996</v>
+        <v>298.849371135669</v>
       </c>
       <c r="C5" t="n">
-        <v>8.699112619317658</v>
+        <v>8.698790171915716</v>
       </c>
       <c r="D5" t="n">
-        <v>1338.408905345049</v>
+        <v>1338.284751013604</v>
       </c>
       <c r="E5" t="n">
-        <v>63.20898792225844</v>
+        <v>63.20547132447881</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.3803604011244</v>
+        <v>163.3830841994793</v>
       </c>
       <c r="C6" t="n">
-        <v>8.699112619317658</v>
+        <v>8.698790171915716</v>
       </c>
       <c r="D6" t="n">
-        <v>694.8107526646633</v>
+        <v>694.8223233287334</v>
       </c>
       <c r="E6" t="n">
-        <v>63.20898792225844</v>
+        <v>63.20547132447881</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.9207260929267</v>
+        <v>161.9234931616289</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6490295450779887</v>
+        <v>0.6490747728826196</v>
       </c>
       <c r="D7" t="n">
-        <v>683.823969403914</v>
+        <v>683.8360079966437</v>
       </c>
       <c r="E7" t="n">
-        <v>63.20898792225844</v>
+        <v>63.20547132447881</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.4174657495211</v>
+        <v>175.4184580788269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6428329709255516</v>
+        <v>0.6429010117622709</v>
       </c>
       <c r="D8" t="n">
-        <v>2792.563903302178</v>
+        <v>2792.563158212547</v>
       </c>
       <c r="E8" t="n">
-        <v>15.28930579516435</v>
+        <v>15.29371687488204</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>161.9207259625172</v>
+        <v>161.923493031215</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6490295450779887</v>
+        <v>0.6490747728826196</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.535183434477</v>
+        <v>2759.538171499363</v>
       </c>
       <c r="E9" t="n">
-        <v>15.28930579516435</v>
+        <v>15.29371687488204</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.8354222348167</v>
+        <v>157.841072673826</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6490295450779887</v>
+        <v>0.6490747728826196</v>
       </c>
       <c r="D10" t="n">
-        <v>666.1145959157357</v>
+        <v>666.1390815451126</v>
       </c>
       <c r="E10" t="n">
-        <v>78.49829371742278</v>
+        <v>78.49918819936084</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>157.8354222348167</v>
+        <v>157.841072673826</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6490295450779887</v>
+        <v>0.6490747728826196</v>
       </c>
       <c r="D11" t="n">
-        <v>666.1145959157357</v>
+        <v>666.1390815451126</v>
       </c>
       <c r="E11" t="n">
-        <v>94.2083570920679</v>
+        <v>94.20554959375846</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6490295450779887</v>
+        <v>0.6490747728826196</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7086200267601</v>
+        <v>251.708658003591</v>
       </c>
       <c r="E12" t="n">
-        <v>94.2033712059276</v>
+        <v>94.20367828274885</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.15619516757494</v>
+        <v>40.15640645015856</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>168.7961243601105</v>
+        <v>168.7970070919291</v>
       </c>
       <c r="E13" t="n">
-        <v>78.49829371743519</v>
+        <v>78.4991881993647</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.15619516757494</v>
+        <v>40.15640645015856</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>168.7961243601105</v>
+        <v>168.7970070919291</v>
       </c>
       <c r="E14" t="n">
-        <v>78.49829371743519</v>
+        <v>78.4991881993647</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.02252888071052</v>
+        <v>64.02429000208178</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02396688747274963</v>
+        <v>0.02396878798887061</v>
       </c>
       <c r="D15" t="n">
-        <v>268.0222050365189</v>
+        <v>268.0295804315531</v>
       </c>
       <c r="E15" t="n">
-        <v>64.74660523186142</v>
+        <v>64.74644893573134</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.2935224311608</v>
+        <v>42.29385640868685</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02396688747275014</v>
+        <v>0.02396878798886928</v>
       </c>
       <c r="D16" t="n">
-        <v>177.1340333956977</v>
+        <v>177.1354310525523</v>
       </c>
       <c r="E16" t="n">
-        <v>64.74660523188552</v>
+        <v>64.74644893572675</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.88297223878178</v>
+        <v>52.88398465415207</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>221.4210047637793</v>
+        <v>221.4252437469347</v>
       </c>
       <c r="E19" t="n">
         <v>87.07360016323535</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>101.3899077210588</v>
+        <v>101.3922467098456</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09949567565624506</v>
+        <v>0.09949399088522247</v>
       </c>
       <c r="D20" t="n">
-        <v>2626.802561197141</v>
+        <v>2626.81391096763</v>
       </c>
       <c r="E20" t="n">
-        <v>36.91324390184592</v>
+        <v>36.9108704690339</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.03835849027384</v>
+        <v>98.03788997752682</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09452089187343281</v>
+        <v>0.09451929134096135</v>
       </c>
       <c r="D21" t="n">
-        <v>410.8935070700041</v>
+        <v>410.891531798875</v>
       </c>
       <c r="E21" t="n">
-        <v>36.91324390184592</v>
+        <v>36.9108704690339</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.01984241552464</v>
+        <v>62.02147322864499</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>259.6770801938017</v>
+        <v>259.6839084083365</v>
       </c>
       <c r="E22" t="n">
         <v>691.2198825216667</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.91620204100405</v>
+        <v>38.91632957589328</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.16616808677259</v>
+        <v>65.16794292413556</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02522830260289435</v>
+        <v>0.02523030314617958</v>
       </c>
       <c r="D25" t="n">
-        <v>2505.146089064283</v>
+        <v>2505.157734814422</v>
       </c>
       <c r="E25" t="n">
-        <v>27.83336133002624</v>
+        <v>27.83557846669041</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>505.7372805570194</v>
+        <v>505.7420031310329</v>
       </c>
       <c r="C26" t="n">
-        <v>7.801038481855269</v>
+        <v>7.800649746955687</v>
       </c>
       <c r="D26" t="n">
-        <v>3416.000350038445</v>
+        <v>3416.016497180419</v>
       </c>
       <c r="E26" t="n">
-        <v>63.20898792225844</v>
+        <v>63.20547132447881</v>
       </c>
       <c r="F26" t="n">
-        <v>6.758765190984281</v>
+        <v>6.758807540332014</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>185.3381464485057</v>
+        <v>185.3476546746152</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4918871800302931</v>
+        <v>0.4918982844522861</v>
       </c>
       <c r="D27" t="n">
-        <v>2824.619673524597</v>
+        <v>2824.63973093264</v>
       </c>
       <c r="E27" t="n">
-        <v>63.20898792225844</v>
+        <v>63.20547132447881</v>
       </c>
       <c r="F27" t="n">
-        <v>7.001328812098969</v>
+        <v>7.00136245565384</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.8591218732382</v>
+        <v>172.8603099610766</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5584136544120859</v>
+        <v>0.558463151147968</v>
       </c>
       <c r="D28" t="n">
-        <v>2792.563903302178</v>
+        <v>2792.563158212547</v>
       </c>
       <c r="E28" t="n">
-        <v>15.28930579516435</v>
+        <v>15.29371687488204</v>
       </c>
       <c r="F28" t="n">
-        <v>6.873916828285944</v>
+        <v>6.873875867974617</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>182.4787508566184</v>
+        <v>182.4855834002853</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4918871800302931</v>
+        <v>0.4918982844522861</v>
       </c>
       <c r="D29" t="n">
-        <v>2818.37609229219</v>
+        <v>2818.390366668492</v>
       </c>
       <c r="E29" t="n">
-        <v>78.49829371742278</v>
+        <v>78.49918819936084</v>
       </c>
       <c r="F29" t="n">
-        <v>6.987668379640769</v>
+        <v>6.987689614687808</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>101.3899077210665</v>
+        <v>101.3922467098482</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1065529376525528</v>
+        <v>0.1065617567571498</v>
       </c>
       <c r="D30" t="n">
-        <v>2626.802561197138</v>
+        <v>2626.81391096763</v>
       </c>
       <c r="E30" t="n">
-        <v>78.49829371742278</v>
+        <v>78.49918819936084</v>
       </c>
       <c r="F30" t="n">
-        <v>7.201488065566368</v>
+        <v>7.201481632644549</v>
       </c>
       <c r="G30" t="n">
-        <v>97.7380726072783</v>
+        <v>97.73840718133837</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.16616808676861</v>
+        <v>65.16794292413073</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02522830260289274</v>
+        <v>0.02523030314617923</v>
       </c>
       <c r="D31" t="n">
-        <v>2505.146089064319</v>
+        <v>2505.15773481444</v>
       </c>
       <c r="E31" t="n">
-        <v>41.5850498155876</v>
+        <v>41.58831773031993</v>
       </c>
       <c r="F31" t="n">
-        <v>7.494075951368062</v>
+        <v>7.494075752447459</v>
       </c>
       <c r="G31" t="n">
-        <v>95.19631626264666</v>
+        <v>95.19667330915549</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65.16616808676861</v>
+        <v>65.16794292413073</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02522830260289274</v>
+        <v>0.02523030314617923</v>
       </c>
       <c r="D32" t="n">
-        <v>2505.146089064319</v>
+        <v>2505.15773481444</v>
       </c>
       <c r="E32" t="n">
-        <v>13.75168848554966</v>
+        <v>13.75273926363795</v>
       </c>
       <c r="F32" t="n">
-        <v>7.494075951368062</v>
+        <v>7.494075752447459</v>
       </c>
       <c r="G32" t="n">
-        <v>95.19631626264666</v>
+        <v>95.19667330915549</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.7345477581884</v>
+        <v>28.7349191999362</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003948035268420485</v>
+        <v>0.003948120254131972</v>
       </c>
       <c r="D33" t="n">
-        <v>2407.933667412108</v>
+        <v>2407.933360945806</v>
       </c>
       <c r="E33" t="n">
-        <v>13.75168848554966</v>
+        <v>13.75273926363795</v>
       </c>
       <c r="F33" t="n">
-        <v>7.996635175421677</v>
+        <v>7.996624836711051</v>
       </c>
       <c r="G33" t="n">
-        <v>94.02639253679857</v>
+        <v>94.02635019593973</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.7345477581884</v>
+        <v>28.7349191999362</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003948035268420485</v>
+        <v>0.003948120254131972</v>
       </c>
       <c r="D34" t="n">
-        <v>120.4438303492029</v>
+        <v>120.4453831900825</v>
       </c>
       <c r="E34" t="n">
-        <v>13.75168848554966</v>
+        <v>13.75273926363795</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.75965077472881</v>
+        <v>30.76002240839949</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>129.5390320144094</v>
+        <v>129.5405847297041</v>
       </c>
       <c r="E35" t="n">
-        <v>13.75168848554966</v>
+        <v>13.75273926363795</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.3681862999891</v>
+        <v>500.3618369758883</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3469.053392993913</v>
+        <v>3469.039384724691</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082110064281464</v>
+        <v>5.082093760660978</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.3681862999891</v>
+        <v>515.3618369758883</v>
       </c>
       <c r="C42" t="n">
-        <v>7.157377821947335</v>
+        <v>7.156590092474799</v>
       </c>
       <c r="D42" t="n">
-        <v>3446.805158327546</v>
+        <v>3446.79727931886</v>
       </c>
       <c r="E42" t="n">
-        <v>6.047025411534669</v>
+        <v>6.046883543943752</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
